--- a/data/hotels_by_city/Dallas/Dallas_shard_318.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_318.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="341">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>denisefelty</t>
+  </si>
+  <si>
     <t>06/05/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>William M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r546724388-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>I had the pleasure of staying at this property last night. I favor HGI as they are quaint enough for personal service yet offer full service amenities. As a world traveler, Hilton Diamond member, and frequent guest of Hiltons, particularly HGI properties, I understand service and have high expectations.  Having formerly worked in a senior leadership role in the hospitality industriy, some things caught my eye. One, the staff at check in was welcoming and friendly. The room was clean and comfortable. The breakfast crew was great too. The property is on the smaller side but it works for what they have. Two, was the GM! I was having breakfast when she (Tiffany Ramirez) came in. I observed her pick up a small piece of trash by the coffee, straighten out some things in the cooler in the market place and greet and treat her staff like they mattered. All before taking off her jacket. That is the bread and butter of outstanding leadership. The little things!  If it’s important to leadership it will be important to the staff. So bravo on a job well done. I made a point to ask if who I observed was the GM and asked for her card so I could send her a personal note. Thanks again for a job very well done! More</t>
   </si>
   <si>
+    <t>harasc555</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r584846942-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -231,6 +240,9 @@
     <t>We recently stayed in this hotel for 3 nights. Everything was OK until we found an additional charge in our C.C. few days later after we checked out. The hotel Oper. Manager claimed an alarm clock was missing which we never noticed it was in the room nor ever thought it should be in the room b/c nowadays we relied on our cell phones. We suggested this hotel or any future customers need to do an inventory check together during check-in/check-out. Do not wrongfully accuse the frequent good customers for stealing, charge the bill without informing the customers what it is for, and perform a walk-through before leasing out a room to avoid this type of issues. We eventually got the credit back by the credit card company, not the hotel. The staff who answered the phone was very understanding and agreed it did not seem logical but the Oper. manager on call at that time was rude. We are very disappointed at Hilton Garden Inn at Addison TX. We can offer to buy an alarm clock if the hotel needs one, but should never ever accuse of us for stealing an "Alarm Clock".More</t>
   </si>
   <si>
+    <t>trvlrtx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r584657209-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t>We have stayed at this location before and it continues to be the most restful stay.  The staff was helpful, the beds are great, the bathroom was clean and the location was perfect for our needs. This has become our preferred hotel when we are in town.More</t>
   </si>
   <si>
+    <t>astacktx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r584132867-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -273,6 +288,9 @@
     <t>I can't say I remember ever combing through the internet to try to pay compliments before, but I thought it was warranted in this instance.  The staff here in Addison, Texas is, without a doubt, the nicest I have ever encountered.  I travel quite often for work, and am in and out of hotels on a weekly basis.  I normally just come and go, and don't really pay too much attention to the hotel staff where I'm staying.  I just sort of keep to myself and go about my business quietly, and then head home.  I just felt it was warranted in this case to pass along my sincere compliments to you for the front desk and breakfast (for lack of a better term) staff.  They have all been absolutely friendly and, I guess more than anything, enjoyable to be around.  They have definitely made my stay enjoyable, and without question, when I'm back in Addison, I will definitely be staying here.  Anyways, just wanted to pass my thanks along and hope it finds its way back to the staff here.  We live in such a negative society these days, with everyone judging everyone else.  I don't know, I just wanted someone to know that friendly service and pleasant people are still very much appreciated.  My sincere compliments to everyone here in Addison.  Cheers!More</t>
   </si>
   <si>
+    <t>Adam S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r579489328-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>Great customer service at this Hilton garden inn. I came in Addison for a company trip.  When leaving I left my bag in the lobby and they called me before I got five minutes away.  Thanks Hilton Garden InnMore</t>
   </si>
   <si>
+    <t>AWT416</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r578404209-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -318,6 +339,9 @@
     <t>Good hotel. I don’t ask much from a hotel, primarily that it be clean-this one was. The location is convenient to a plethora of restaurants, and only a short drive from the airport and downtown Dallas. There is a lot of construction going on around it, including paving of Belt Line Dr. That’s not the hotel’s fault. It didn’t bother me, but just be aware.  More</t>
   </si>
   <si>
+    <t>wrhegeman</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r575619143-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -348,6 +372,9 @@
     <t>Needs better menu and longer food and drink hours. The location is good for me. It is close to the airport. Needs better menu and longer food and drink hours. The location is good for me. It is close to the airporMore</t>
   </si>
   <si>
+    <t>unik2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r574823799-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -372,6 +399,9 @@
     <t>Construction behind the hotel at all hours of the night.  Backhoe's, tractors, round the clock construction.  If you want a good nights rest, wait a few months until the construction is over.  There's also construction on the roads getting in and out was problematic.More</t>
   </si>
   <si>
+    <t>crisr713281</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r574039630-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -393,6 +423,9 @@
     <t>Stayed over night on 4/12/18. We were greeted by Paul and Carmen at the front desk. They were very helpful. The hotel was clean and so was our room. It was in a great location and close to all sorts of restaurants and places to go. We truly enjoyed our stay.More</t>
   </si>
   <si>
+    <t>Ryan N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r558162178-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -420,6 +453,9 @@
     <t>As a Hilton’s diamond member, i know when I experience a great property...and this is a great property. The most important aspect is the staff and they are an exceptional group here. Great service. Hotel is clean and well kept. It is conveniently located near many good restaurants. You will enjoy your stay here! More</t>
   </si>
   <si>
+    <t>scifichick119</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r557970601-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -438,6 +474,9 @@
     <t>They make you feel like family. It's a nice to know that someone is watching out for you when you are away from home. I always feel safe, being in a place you are sort of familiar with, staff remember us each time and it's so nice.More</t>
   </si>
   <si>
+    <t>caroldL4304KU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r557954387-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>This was a business trip. Dallas folks are sooo very nice. from my arrival to my departure the customer service was excellent. morning greetings, clean lobby, food area. Sundries are a bit pricey, but the location is close to everything! the interior is a bit dated, but overall a good stay for the value.  and the customer service was exceptional.More</t>
   </si>
   <si>
+    <t>emilyo567</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r555630504-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>I have stayed at this very hotel three times now and have never been disappointed. The staff is always very friendly and accommodating and the beds are wonderful. It is located in a quiet area but yet conveniently located close to anything you'd like to do. More</t>
   </si>
   <si>
+    <t>mgobluwolverine</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r555281669-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -537,6 +582,9 @@
     <t>I stay in hotels 300+ nights a year and prefer Hilton properties because I have come to expect a certain level of hospitality and customer service. This hotel has neither of these qualities and appears to be a Hilton property in name only. I made a reservation on my Hilton app and listed my wife as an additional guest who could check in on my absence. She arrived after a long weather delayed flight only to be informed that because I was not there with the credit card that is in my file she could not check in. What type of place tells a woman at 8:30 at night that they won’t let her check in leaving her scrambling to find a new hotel? She was told this was due to credit card fraud, yet once they cancelled her reservation they still had the nerve to charge that very same card for one night, siting late cancellation. They refused to check her in, cancelled the reservation, charged my card anyway and then told her to tell me to take it up with Hilton knowing full well that Hilton can’t do anything about them charging for a stay.Sleazy operation at best! Stay somewhere else... a lot of other options in Addison. More</t>
   </si>
   <si>
+    <t>barryg187</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r550554282-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>I did the "advance purchase" option for my stay at the Hilton Garden Inn in Addison, TX.  Hilton charged my credit card at the time of my reservation (allowed me to save money).  However, a few weeks later, the hotel also charged my credit card.  If I had not been checking my card, I would have not known.  Also, it took two separate phone calls to get this issue resolved.  Finally, the promise of having a member of the hotel management team contact me was never held up to.  Very disappointing experience.More</t>
   </si>
   <si>
+    <t>benjaminwolf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r548667864-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -585,6 +636,9 @@
     <t>We have stayed at the Hilton Garden Inn more than once. After this stay we are looking around for another hotel to stay in. The problem was last Saturday evening. We left the hotel at about 1:00 or 1:30 in the afternoon--our room had not yet been made up. We noticed that the tables were being decorated for the holidays, but thought nothing more about it. We got back to the hotel at about 10:00PM. When we returned it was raining and there was a large truck parked in front of the entrance under the canopy. The front door glass seemed to be covered with wrapping paper and had a sign on it we could not read. We had left our car at the hotel and a relative drove us back. We thought we could get out under the canopy and not get wet--no such luck. We got out of the car. I got drenched by the water spill off from the roof. The sign on the front door said to use another entrance. We did not know exactly where this was and further got soaked looking for that door. When we got in we realized that they had closed the lobby so they could have a holiday party for the staff. The music was blasting very loud. They offered some apologies as we entered. When we got to our room there was a note under the door. I thought...We have stayed at the Hilton Garden Inn more than once. After this stay we are looking around for another hotel to stay in. The problem was last Saturday evening. We left the hotel at about 1:00 or 1:30 in the afternoon--our room had not yet been made up. We noticed that the tables were being decorated for the holidays, but thought nothing more about it. We got back to the hotel at about 10:00PM. When we returned it was raining and there was a large truck parked in front of the entrance under the canopy. The front door glass seemed to be covered with wrapping paper and had a sign on it we could not read. We had left our car at the hotel and a relative drove us back. We thought we could get out under the canopy and not get wet--no such luck. We got out of the car. I got drenched by the water spill off from the roof. The sign on the front door said to use another entrance. We did not know exactly where this was and further got soaked looking for that door. When we got in we realized that they had closed the lobby so they could have a holiday party for the staff. The music was blasting very loud. They offered some apologies as we entered. When we got to our room there was a note under the door. I thought it was our bill, since we would be leaving the next day. But No, it was a flyer informing us about the party going on down stairs. Why wasn't that note put there the day before so we would know what was going on, or even that morning? I have never heard of such a thing! Closing the lobby?! Why not use an unoccupied suite for their holiday party? Why not give proper notice to those staying at the hotel? I felt the situation was thoughtless! I rated the noise level as loud because of that party. My wife had a hard time getting to sleep.More</t>
   </si>
   <si>
+    <t>Ron M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r547715765-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -603,6 +657,9 @@
     <t>*Checked into the Hilton Garden Inn, Addison, and this Hotel is Beautifully Decorated for Christmas EVERWHERE. Personal Touches throughout the Hotel and a Wonderful Staff. Great looking room and a Wonderful Relaxing Bed. All the Staff here are some of the nicest people you will ever find anywhere. Very helpful in all areas. Our Room was very quiet and comfortable. We only stayed one night due to our travel plans, but when we stay more then one night, we are definitely going to check in here.More</t>
   </si>
   <si>
+    <t>Kevin J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r542436595-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -630,6 +687,9 @@
     <t>The service was great and nice! The Bar was self service and no one to take your food order. I was thinking of going back in the  kitchen and cooking it myself.  It’s kind of ironic a group of us would get a beer then pay the lady at the front desk with no bartender. We all got a big  laugh out of it. Had to walk down the street for dinner. More</t>
   </si>
   <si>
+    <t>C H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r541870447-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -648,6 +708,9 @@
     <t>Staff was friendly and complex was clean and neat. Our room was clean and nice, tv and complementary wifi were great. The a/c worked well but was a bit loud. The only really issue was the mattresses. We had two queen bed and both were equally terrible.More</t>
   </si>
   <si>
+    <t>Owen D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r541847503-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -663,6 +726,9 @@
     <t>This Hilton Garden Inn has been a frequent stop over the past several years. Usually clean and very handy to Addison/surrounding area. Beds are getting worn. Probably time for another remodel... thus just avg rating... but staff were nice!More</t>
   </si>
   <si>
+    <t>HappyGuest3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r540993189-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -687,6 +753,9 @@
     <t>The bed was so uncomfortable that it was like sleeping in a concrete floor! The front desk employee moved so fast to check me out that she didn't allow me time to advise her of my preferred payment method and charged my incorrect card... the toilet was stopped up upon arrival... just the worst stay that I have ever experienced through the Hilton brand! I would prefer to be reimbursed for my used HH points and money I paid for my stay!More</t>
   </si>
   <si>
+    <t>Y9257PVmariau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r540281835-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -711,6 +780,9 @@
     <t>Every thing worked the way it supposed to work. Breakfast was good.  Bed was well made.  Parking lot  was well lighted.  Snack at lobby most of the time.  Rest room clean  and even night lamp.  High end coffee. More</t>
   </si>
   <si>
+    <t>Jtrscraps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r539796647-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -747,6 +819,9 @@
     <t>My brother and I decided to stay here since our original hotel we wanted to stay in was fully booked. It was a very pleasant stay in a clean and friendly environment. The rooms were spacious and clean and the staff extremely friendly. The foyer was a great place to sit and chat by the fireplace.Will use Hilton again.More</t>
   </si>
   <si>
+    <t>Christopher C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r538203726-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -774,6 +849,9 @@
     <t>When traveling to Dallas, I chose to stay at this property each time due to the service, cleanliness and convenience.  They have always been accommodating to any requests and my room is clean - the one place that I know will smell as good as it looks!  Recommend highly!More</t>
   </si>
   <si>
+    <t>805feliciaj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r537785829-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -816,6 +894,9 @@
     <t>I needed a hotel for the day before my wedding. Along with several rooms for family, bridal party, and out of town guests. This place met all of my expectations. Call for Brandon in sales. He’ll take great care of you! More</t>
   </si>
   <si>
+    <t>Barnerfamily5</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r534170936-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -834,6 +915,9 @@
     <t>My family and Ibwere in town for the weekend for a wedding. Everything about our stay was phenomenal. From the friendly staff the the hotel accommodations, even the shuttle service to and from the wedding venue was superb. Highly recommend.More</t>
   </si>
   <si>
+    <t>188jeffreyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r533930671-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -852,6 +936,9 @@
     <t>The location is terrific, many restaurants, bars and shopping close by and a hotel shuttle away.  Beltline road with its restarants is right out the front door.  The shuttle will drop you off at the Dart train station, so anywhere in Dallas is a short ride away.  The rooms are nice and comfortable.  The real reason to stay is the staff though.  My wife and I have stayed here numerous times because of the friendly accommodating attitude of the staff.More</t>
   </si>
   <si>
+    <t>Volkan E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r533431861-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -870,6 +957,9 @@
     <t>Was at this hotel with my colleagues for 1 week for the business trip. Honestly I couldn't ask for a better welcome and a farewell. The hotel staff was always smiling and cheerful. The hygiene was spotless. Very clean rooms and fresh. Food was amazing, best burger I've had in my life was located here! Pool was always taken care of. Simply best hotel I have been to. Hope to be back in the future. Thank you!! More</t>
   </si>
   <si>
+    <t>heatherjean81</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r529182537-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -894,6 +984,9 @@
     <t>I was booked to stay here for a week for a business trip. Unfortunately, I had a family emergency arise literally as I was about to board my plane for my week in Dallas &amp; had to cancel my trip on very short notice. I wasn't able to change my reservations on the mobile app, so I called the hotel directly to explain my situation and cancel my reservation. I was told hotel policy states that I would have had to cancel 24 hrs before check-in, so they're going to charge me 1 nights charge. That's it.. absolutely no bit of empathy showed, the lady (didn't get her name) sounded like she was reading a script! I explained to her again this was due to a family emergency, I had to cancel my flight and that I'm also a Diamond HHonors member (going on 5th year Diamond) and she again re-read to me her scripted response. I asked to speak with a manager and she abruptly stated "I am." That's it, no I'm sorry to hear of your emergency, no thank you for being a loyal customer, nothing. I understand policy, but I also understand that it doesn't mean having to break policy to show a little freaking empathy to loyal customers. So word of advice fellow business travelers - if you're staying at this property and you have an emergency that requires you to alter your plans - make...I was booked to stay here for a week for a business trip. Unfortunately, I had a family emergency arise literally as I was about to board my plane for my week in Dallas &amp; had to cancel my trip on very short notice. I wasn't able to change my reservations on the mobile app, so I called the hotel directly to explain my situation and cancel my reservation. I was told hotel policy states that I would have had to cancel 24 hrs before check-in, so they're going to charge me 1 nights charge. That's it.. absolutely no bit of empathy showed, the lady (didn't get her name) sounded like she was reading a script! I explained to her again this was due to a family emergency, I had to cancel my flight and that I'm also a Diamond HHonors member (going on 5th year Diamond) and she again re-read to me her scripted response. I asked to speak with a manager and she abruptly stated "I am." That's it, no I'm sorry to hear of your emergency, no thank you for being a loyal customer, nothing. I understand policy, but I also understand that it doesn't mean having to break policy to show a little freaking empathy to loyal customers. So word of advice fellow business travelers - if you're staying at this property and you have an emergency that requires you to alter your plans - make sure that you plan on advance for it to occur at least 24 hrs before check-in or be prepared to pay your one night's charge penalty! Needless to say, I won't be booking another stay here. I'll stick to the Hampton Inn - they don't require you to preplan emergencies.More</t>
   </si>
   <si>
+    <t>TravelProFL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r528848545-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
   </si>
   <si>
@@ -919,6 +1012,9 @@
   </si>
   <si>
     <t>Probably one of the best HGI we've ever stayed at by far!  The staff were super friendly and accommodating, all know the true meaning of excellent customer service!  Can't say enough about Sandra, Jazmyn, Victoria @ breakfast, plus several others that unfortunately I can't recall their names but all provided A+ service!  Great central location with easy access to Addison, Plano, Richardson, and Carrollton areas.Pros:Service, of course!Firm comfortable bedClean, spotless room and hotel overallBreakfast options and service were incredible!Provided shower gel which most HGI's do not!!Cons (which I consider them to be VERY minor):Shower head water pressure was a bit weak/lowA/C warmer than usual especially at nightPillows were a bit too flat and puff-less - I prefer mine to be extra big and fluffy :-) TV could be a little larger for the room sizeWalls were thin - could hear people walking and talking outside our doorAll in all, a wonderful stay!  Will definitely stay here again and recommend to others without hesitation!More</t>
+  </si>
+  <si>
+    <t>J6019IOdavida</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d109573-r527938317-Hilton_Garden_Inn_Dallas_Addison-Addison_Texas.html</t>
@@ -1447,43 +1543,47 @@
       <c r="A2" t="n">
         <v>37243</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>35522</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -1507,50 +1607,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>37243</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>13586</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1562,56 +1666,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>37243</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>152032</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1629,56 +1737,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>37243</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>152033</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1700,56 +1812,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>37243</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>152034</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1765,56 +1881,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="X6" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Y6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>37243</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>29479</v>
+      </c>
+      <c r="C7" t="s">
+        <v>90</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1836,56 +1956,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>37243</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>152035</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1897,56 +2021,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>37243</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>152036</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1968,56 +2096,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>37243</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>152037</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="J10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="K10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -2039,56 +2171,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>37243</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>152038</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="J11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="O11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2100,56 +2236,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="X11" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>37243</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>152039</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="J12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="K12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="L12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -2171,56 +2311,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>37243</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>152040</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="J13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -2242,56 +2386,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X13" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>37243</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>152041</v>
+      </c>
+      <c r="C14" t="s">
+        <v>152</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+      <c r="K14" t="s">
+        <v>155</v>
+      </c>
+      <c r="L14" t="s">
+        <v>156</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>141</v>
       </c>
-      <c r="J14" t="s">
-        <v>136</v>
-      </c>
-      <c r="K14" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" t="s">
-        <v>143</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>130</v>
-      </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2313,13 +2461,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X14" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
@@ -2332,37 +2480,37 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J15" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K15" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -2384,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="X15" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16">
@@ -2403,37 +2551,37 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J16" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
         <v>2</v>
@@ -2455,56 +2603,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X16" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y16" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>37243</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>152042</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2526,56 +2678,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37243</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>152043</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="O18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2587,56 +2743,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X18" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>37243</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>152044</v>
+      </c>
+      <c r="C19" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O19" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2658,56 +2818,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>37243</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>152045</v>
+      </c>
+      <c r="C20" t="s">
+        <v>197</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -2723,56 +2887,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>37243</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>6867</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="J21" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -2790,56 +2958,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="X21" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>37243</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>21298</v>
+      </c>
+      <c r="C22" t="s">
+        <v>213</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J22" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K22" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2861,56 +3033,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>37243</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>53305</v>
+      </c>
+      <c r="C23" t="s">
+        <v>223</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2922,56 +3098,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X23" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>37243</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>152046</v>
+      </c>
+      <c r="C24" t="s">
+        <v>230</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J24" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="L24" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O24" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2983,56 +3163,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="X24" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>37243</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>152047</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O25" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -3054,56 +3238,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="X25" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>37243</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>152048</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3125,56 +3313,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="X26" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>37243</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>152049</v>
+      </c>
+      <c r="C27" t="s">
+        <v>254</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O27" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -3196,13 +3388,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28">
@@ -3215,37 +3407,37 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J28" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K28" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3257,56 +3449,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="X28" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="Y28" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>37243</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>5446</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3328,56 +3524,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X29" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y29" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>37243</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>152050</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J30" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K30" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3399,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X30" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y30" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31">
@@ -3418,37 +3618,37 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="J31" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="K31" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3470,56 +3670,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X31" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y31" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>37243</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>152051</v>
+      </c>
+      <c r="C32" t="s">
+        <v>292</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3541,56 +3745,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X32" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>37243</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>152052</v>
+      </c>
+      <c r="C33" t="s">
+        <v>299</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>273</v>
       </c>
-      <c r="J33" t="s">
-        <v>274</v>
-      </c>
-      <c r="K33" t="s">
-        <v>275</v>
-      </c>
-      <c r="L33" t="s">
-        <v>276</v>
-      </c>
-      <c r="M33" t="n">
-        <v>5</v>
-      </c>
-      <c r="N33" t="s">
-        <v>248</v>
-      </c>
       <c r="O33" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -3612,56 +3820,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X33" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y33" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>37243</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>152053</v>
+      </c>
+      <c r="C34" t="s">
+        <v>306</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K34" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L34" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -3673,56 +3885,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X34" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y34" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>37243</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>109003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>313</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="J35" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="K35" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="L35" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O35" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -3734,56 +3950,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="X35" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Y35" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>37243</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>152054</v>
+      </c>
+      <c r="C36" t="s">
+        <v>322</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="J36" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="K36" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="L36" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -3801,56 +4021,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
       <c r="X36" t="s">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="Y36" t="s">
-        <v>300</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>37243</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>152055</v>
+      </c>
+      <c r="C37" t="s">
+        <v>332</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="J37" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="K37" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="L37" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -3872,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="X37" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="Y37" t="s">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
